--- a/EDT_EAH/bin/Release/Meilleur_planning_profs.xlsx
+++ b/EDT_EAH/bin/Release/Meilleur_planning_profs.xlsx
@@ -25,45 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>28/09/2020</t>
-  </si>
-  <si>
-    <t>Cécile BLANC</t>
-  </si>
-  <si>
-    <t>Michèle ROUSSEL</t>
-  </si>
-  <si>
-    <t>Jean-Pierre REISCH</t>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>Stéphanie DESQUIENS</t>
+  </si>
+  <si>
+    <t>Danièle LEVY</t>
+  </si>
+  <si>
+    <t>Sylvie COHEN</t>
+  </si>
+  <si>
+    <t>Anne BOROCCO</t>
+  </si>
+  <si>
+    <t>Paula HARRY</t>
+  </si>
+  <si>
+    <t>Claude ARDITTY</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
+  <si>
+    <t>Maxence</t>
+  </si>
+  <si>
+    <t>Ninon</t>
+  </si>
+  <si>
+    <t>Carmen</t>
   </si>
   <si>
     <t>Suzon</t>
   </si>
   <si>
-    <t>Oumou</t>
-  </si>
-  <si>
-    <t>Maxence</t>
-  </si>
-  <si>
-    <t>Maimouna</t>
-  </si>
-  <si>
-    <t>Ninon</t>
-  </si>
-  <si>
-    <t>Mellissandre</t>
-  </si>
-  <si>
-    <t>Shana</t>
-  </si>
-  <si>
-    <t>Carmen</t>
+    <t>Mégane</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Maïmouna</t>
+  </si>
+  <si>
+    <t>Jason</t>
   </si>
   <si>
     <t>Charlène</t>
@@ -528,9 +540,15 @@
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -542,15 +560,15 @@
         <v>9h30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -562,17 +580,21 @@
         <v>10h15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -584,17 +606,23 @@
         <v>11h00</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -605,16 +633,22 @@
         <f>IF($A$2="VENDREDI","11h30","11h45")</f>
         <v>11h45</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -622,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -637,13 +671,19 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -652,13 +692,21 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
